--- a/Graph/桌面监控项目进度跟踪工具+迭代燃尽图.xlsx
+++ b/Graph/桌面监控项目进度跟踪工具+迭代燃尽图.xlsx
@@ -1451,10 +1451,10 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2109,10 +2109,10 @@
   <dimension ref="B2:U136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="21" ySplit="4" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="21" ySplit="4" topLeftCell="V29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="H6" s="18">
         <f t="shared" ref="H6:T6" si="1">SUM(H7:H15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="1"/>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="H9" s="22">
         <f t="shared" ref="H9:T9" si="4">H40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="4"/>
@@ -3441,7 +3441,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>176</v>
@@ -3452,7 +3452,9 @@
       <c r="H30" s="22">
         <v>0.5</v>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -3476,7 +3478,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>176</v>
@@ -3487,7 +3489,9 @@
       <c r="H31" s="22">
         <v>0.5</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -3740,11 +3744,11 @@
       </c>
       <c r="H40" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="13"/>
@@ -3802,14 +3806,18 @@
         <v>24</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>175</v>
       </c>
       <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="H41" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="22">
+        <v>0.5</v>
+      </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -3833,14 +3841,18 @@
         <v>24</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>175</v>
       </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="H42" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="22">
+        <v>0.5</v>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -3871,7 +3883,9 @@
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="22">
+        <v>0.5</v>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -6113,11 +6127,11 @@
       </c>
       <c r="H124" s="44">
         <f t="shared" ref="H124:T124" si="20">H6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" s="44">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J124" s="44">
         <f t="shared" si="20"/>
